--- a/doc/接口文档/接口信息接口.xlsx
+++ b/doc/接口文档/接口信息接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23025" windowHeight="9360"/>
+    <workbookView windowWidth="22260" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>获取接口列表(树形结构)</t>
   </si>
@@ -258,6 +258,18 @@
   </si>
   <si>
     <t>/interface/log/list.action</t>
+  </si>
+  <si>
+    <t>pageNum</t>
+  </si>
+  <si>
+    <t>页数</t>
+  </si>
+  <si>
+    <t>pageSize</t>
+  </si>
+  <si>
+    <t>每页商品数量</t>
   </si>
   <si>
     <t>updateDate</t>
@@ -317,66 +329,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -392,14 +344,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,14 +420,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -437,9 +428,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,13 +508,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,7 +526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,7 +538,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,31 +580,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,37 +622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,19 +640,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,41 +669,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -719,11 +696,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,6 +749,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -765,10 +777,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,88 +792,88 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -870,10 +882,10 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -882,32 +894,32 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -937,6 +949,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="40" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1286,10 +1301,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R144"/>
+  <dimension ref="A1:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="F144" sqref="F144:G144"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="H145" sqref="H145:J145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3441,7 +3456,7 @@
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
@@ -3486,16 +3501,18 @@
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
-      <c r="F141" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I141" s="3"/>
-      <c r="J141" s="3"/>
-      <c r="K141" s="3"/>
+      <c r="F141" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G141" s="10"/>
+      <c r="H141" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I141" s="10"/>
+      <c r="J141" s="10"/>
+      <c r="K141" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
       <c r="N141" s="3"/>
@@ -3507,18 +3524,22 @@
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
-      <c r="F142" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I142" s="3"/>
-      <c r="J142" s="3"/>
-      <c r="K142" s="3"/>
+      <c r="F142" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G142" s="10"/>
+      <c r="H142" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I142" s="10"/>
+      <c r="J142" s="10"/>
+      <c r="K142" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L142" s="3"/>
-      <c r="M142" s="3"/>
+      <c r="M142" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="N142" s="3"/>
       <c r="O142" s="3"/>
     </row>
@@ -3528,18 +3549,18 @@
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
-      <c r="F143" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I143" s="3"/>
-      <c r="J143" s="3"/>
-      <c r="K143" s="3"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="10"/>
+      <c r="K143" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="L143" s="3"/>
-      <c r="M143" s="3"/>
+      <c r="M143" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="N143" s="3"/>
       <c r="O143" s="3"/>
     </row>
@@ -3549,23 +3570,44 @@
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
-      <c r="F144" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
-      <c r="K144" s="3"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="10"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="10"/>
+      <c r="K144" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="L144" s="3"/>
-      <c r="M144" s="3"/>
+      <c r="M144" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="N144" s="3"/>
       <c r="O144" s="3"/>
     </row>
+    <row r="145" spans="1:15">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="10"/>
+      <c r="K145" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L145" s="3"/>
+      <c r="M145" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N145" s="3"/>
+      <c r="O145" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="286">
+  <mergeCells count="289">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -3832,8 +3874,7 @@
     <mergeCell ref="M140:O140"/>
     <mergeCell ref="F141:G141"/>
     <mergeCell ref="H141:J141"/>
-    <mergeCell ref="K141:L141"/>
-    <mergeCell ref="M141:O141"/>
+    <mergeCell ref="K141:O141"/>
     <mergeCell ref="F142:G142"/>
     <mergeCell ref="H142:J142"/>
     <mergeCell ref="K142:L142"/>
@@ -3846,6 +3887,10 @@
     <mergeCell ref="H144:J144"/>
     <mergeCell ref="K144:L144"/>
     <mergeCell ref="M144:O144"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="H145:J145"/>
+    <mergeCell ref="K145:L145"/>
+    <mergeCell ref="M145:O145"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A19:O20"/>
     <mergeCell ref="A54:O55"/>
